--- a/IL6MCP1/OUTPUT/20200625.AEDB.CEA.Con.Multi.MCP1_Plaque.Cytokines_Plaques.RANK.MODEL2.xlsx
+++ b/IL6MCP1/OUTPUT/20200625.AEDB.CEA.Con.Multi.MCP1_Plaque.Cytokines_Plaques.RANK.MODEL2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t xml:space="preserve">MMP9_rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1_pg_ml_2015_rank</t>
   </si>
 </sst>
 </file>
@@ -539,40 +542,40 @@
         <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0609236932050135</v>
+        <v>0.0340993407403512</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0611932941579204</v>
+        <v>0.0599002563409665</v>
       </c>
       <c r="F2" t="n">
-        <v>1.06281781087207</v>
+        <v>1.03468738823402</v>
       </c>
       <c r="G2" t="n">
-        <v>0.942692474677963</v>
+        <v>0.920070334159412</v>
       </c>
       <c r="H2" t="n">
-        <v>1.19825046815269</v>
+        <v>1.16358277364591</v>
       </c>
       <c r="I2" t="n">
-        <v>0.995594272924559</v>
+        <v>0.56926869471559</v>
       </c>
       <c r="J2" t="n">
-        <v>0.320260492039218</v>
+        <v>0.569611438828176</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0759694617763113</v>
+        <v>0.193816147911164</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0260218651155716</v>
+        <v>0.138598075850285</v>
       </c>
       <c r="M2" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N2" t="n">
         <v>313</v>
       </c>
       <c r="O2" t="n">
-        <v>87.0714580751755</v>
+        <v>87.0821295914156</v>
       </c>
     </row>
     <row r="3">
@@ -586,40 +589,40 @@
         <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0131585093026423</v>
+        <v>-0.0236622230775683</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0636832147569483</v>
+        <v>0.0618120659511553</v>
       </c>
       <c r="F3" t="n">
-        <v>1.0132454634633</v>
+        <v>0.976615532240441</v>
       </c>
       <c r="G3" t="n">
-        <v>0.894347755114474</v>
+        <v>0.865183312669052</v>
       </c>
       <c r="H3" t="n">
-        <v>1.14794984764909</v>
+        <v>1.10239978493219</v>
       </c>
       <c r="I3" t="n">
-        <v>0.206624451244534</v>
+        <v>-0.382809128176794</v>
       </c>
       <c r="J3" t="n">
-        <v>0.836457749660704</v>
+        <v>0.702163601641827</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0857400984616534</v>
+        <v>0.199831133867385</v>
       </c>
       <c r="L3" t="n">
-        <v>0.035321353891524</v>
+        <v>0.146288235761857</v>
       </c>
       <c r="M3" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N3" t="n">
         <v>288</v>
       </c>
       <c r="O3" t="n">
-        <v>88.1040892193309</v>
+        <v>88.1139083780437</v>
       </c>
     </row>
     <row r="4">
@@ -633,40 +636,40 @@
         <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0244091224587325</v>
+        <v>-0.0434731236327949</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0587384948925183</v>
+        <v>0.0583717536944139</v>
       </c>
       <c r="F4" t="n">
-        <v>1.02470946379909</v>
+        <v>0.957458286745663</v>
       </c>
       <c r="G4" t="n">
-        <v>0.913274919075028</v>
+        <v>0.853950746389423</v>
       </c>
       <c r="H4" t="n">
-        <v>1.14974085378682</v>
+        <v>1.07351199672105</v>
       </c>
       <c r="I4" t="n">
-        <v>0.41555580379438</v>
+        <v>-0.744763021176033</v>
       </c>
       <c r="J4" t="n">
-        <v>0.67804132849106</v>
+        <v>0.457022286972024</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0775338865294798</v>
+        <v>0.193334961192188</v>
       </c>
       <c r="L4" t="n">
-        <v>0.029984086866051</v>
+        <v>0.1429183962667</v>
       </c>
       <c r="M4" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N4" t="n">
         <v>307</v>
       </c>
       <c r="O4" t="n">
-        <v>87.3192895497728</v>
+        <v>87.3297565002064</v>
       </c>
     </row>
     <row r="5">
@@ -680,40 +683,40 @@
         <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0495859752191694</v>
+        <v>0.071058466996668</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0605667393958659</v>
+        <v>0.0600919011016868</v>
       </c>
       <c r="F5" t="n">
-        <v>1.05083593418094</v>
+        <v>1.07364399677331</v>
       </c>
       <c r="G5" t="n">
-        <v>0.933210176450433</v>
+        <v>0.954352996037265</v>
       </c>
       <c r="H5" t="n">
-        <v>1.1832877399238</v>
+        <v>1.2078459821405</v>
       </c>
       <c r="I5" t="n">
-        <v>0.818699763496827</v>
+        <v>1.18249657098423</v>
       </c>
       <c r="J5" t="n">
-        <v>0.413609751857971</v>
+        <v>0.237960925782716</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0697684691674539</v>
+        <v>0.20831353151803</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0199901932700602</v>
+        <v>0.154639872637896</v>
       </c>
       <c r="M5" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N5" t="n">
         <v>316</v>
       </c>
       <c r="O5" t="n">
-        <v>86.9475423378769</v>
+        <v>86.9583161370202</v>
       </c>
     </row>
     <row r="6">
@@ -727,40 +730,40 @@
         <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>0.122587457634787</v>
+        <v>0.228682712159134</v>
       </c>
       <c r="E6" t="n">
-        <v>0.062436499879507</v>
+        <v>0.0593803426752384</v>
       </c>
       <c r="F6" t="n">
-        <v>1.13041797943375</v>
+        <v>1.25694316295166</v>
       </c>
       <c r="G6" t="n">
-        <v>1.00021194032713</v>
+        <v>1.1188453774008</v>
       </c>
       <c r="H6" t="n">
-        <v>1.27757403876736</v>
+        <v>1.41208619779188</v>
       </c>
       <c r="I6" t="n">
-        <v>1.96339413438232</v>
+        <v>3.85115177609938</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0505557485079538</v>
+        <v>0.000145122653362282</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0829846687703343</v>
+        <v>0.242559442804113</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0323907194611113</v>
+        <v>0.189591571671534</v>
       </c>
       <c r="M6" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N6" t="n">
         <v>307</v>
       </c>
       <c r="O6" t="n">
-        <v>87.3192895497728</v>
+        <v>87.3297565002064</v>
       </c>
     </row>
     <row r="7">
@@ -774,40 +777,40 @@
         <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>0.114666602868255</v>
+        <v>0.128892863681906</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0612713434333234</v>
+        <v>0.0578884987116677</v>
       </c>
       <c r="F7" t="n">
-        <v>1.1214994705289</v>
+        <v>1.13756824276378</v>
       </c>
       <c r="G7" t="n">
-        <v>0.994589459723112</v>
+        <v>1.01555108516824</v>
       </c>
       <c r="H7" t="n">
-        <v>1.26460324921075</v>
+        <v>1.27424560501581</v>
       </c>
       <c r="I7" t="n">
-        <v>1.8714556665962</v>
+        <v>2.22657119376853</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0621692038332564</v>
+        <v>0.0266609697045681</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0731054464060677</v>
+        <v>0.196348103386242</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0280285076294631</v>
+        <v>0.146892602056165</v>
       </c>
       <c r="M7" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N7" t="n">
         <v>346</v>
       </c>
       <c r="O7" t="n">
-        <v>85.7083849648905</v>
+        <v>85.7201815930664</v>
       </c>
     </row>
     <row r="8">
@@ -821,40 +824,40 @@
         <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0637461040516156</v>
+        <v>0.00955050930633107</v>
       </c>
       <c r="E8" t="n">
-        <v>0.066499042085439</v>
+        <v>0.0655020740866245</v>
       </c>
       <c r="F8" t="n">
-        <v>1.06582175657979</v>
+        <v>1.00959626095486</v>
       </c>
       <c r="G8" t="n">
-        <v>0.935576821579527</v>
+        <v>0.88795558342769</v>
       </c>
       <c r="H8" t="n">
-        <v>1.21419854639084</v>
+        <v>1.14790044587521</v>
       </c>
       <c r="I8" t="n">
-        <v>0.958601839252265</v>
+        <v>0.145804685416538</v>
       </c>
       <c r="J8" t="n">
-        <v>0.338653343965119</v>
+        <v>0.884190317012604</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0883727801280849</v>
+        <v>0.198204905245666</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0355758368922596</v>
+        <v>0.141828687645752</v>
       </c>
       <c r="M8" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N8" t="n">
         <v>275</v>
       </c>
       <c r="O8" t="n">
-        <v>88.6410574142916</v>
+        <v>88.6504333470904</v>
       </c>
     </row>
     <row r="9">
@@ -868,40 +871,40 @@
         <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0725795118165027</v>
+        <v>0.0553537863540657</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0642180529165498</v>
+        <v>0.0636631762769207</v>
       </c>
       <c r="F9" t="n">
-        <v>1.0752783000221</v>
+        <v>1.05691447045612</v>
       </c>
       <c r="G9" t="n">
-        <v>0.948107039818709</v>
+        <v>0.932929131065698</v>
       </c>
       <c r="H9" t="n">
-        <v>1.21950726441131</v>
+        <v>1.19737733624364</v>
       </c>
       <c r="I9" t="n">
-        <v>1.1302041796692</v>
+        <v>0.869478866610252</v>
       </c>
       <c r="J9" t="n">
-        <v>0.259389501529822</v>
+        <v>0.385363299021496</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0805504017834996</v>
+        <v>0.189865658990583</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0296583576017746</v>
+        <v>0.135453651012338</v>
       </c>
       <c r="M9" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N9" t="n">
         <v>287</v>
       </c>
       <c r="O9" t="n">
-        <v>88.1453944650971</v>
+        <v>88.1551795295089</v>
       </c>
     </row>
     <row r="10">
@@ -915,40 +918,40 @@
         <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>0.10331188439003</v>
+        <v>0.162890919704646</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0566238405435383</v>
+        <v>0.0542750976443512</v>
       </c>
       <c r="F10" t="n">
-        <v>1.1088371841611</v>
+        <v>1.17690830518095</v>
       </c>
       <c r="G10" t="n">
-        <v>0.992358502757737</v>
+        <v>1.05813902492236</v>
       </c>
       <c r="H10" t="n">
-        <v>1.23898762147099</v>
+        <v>1.30900867105391</v>
       </c>
       <c r="I10" t="n">
-        <v>1.82452979872662</v>
+        <v>3.00120915068678</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0688654388898961</v>
+        <v>0.00287049695428292</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0626401564574482</v>
+        <v>0.187555386560196</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0227525035407439</v>
+        <v>0.143875568633325</v>
       </c>
       <c r="M10" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N10" t="n">
         <v>393</v>
       </c>
       <c r="O10" t="n">
-        <v>83.7670384138786</v>
+        <v>83.7804374742055</v>
       </c>
     </row>
     <row r="11">
@@ -962,40 +965,40 @@
         <v>26</v>
       </c>
       <c r="D11" t="n">
-        <v>0.102923936211082</v>
+        <v>0.155569336831586</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0573105495740837</v>
+        <v>0.0549845647098949</v>
       </c>
       <c r="F11" t="n">
-        <v>1.10840709622607</v>
+        <v>1.16832294106991</v>
       </c>
       <c r="G11" t="n">
-        <v>0.990639345307214</v>
+        <v>1.04896041210176</v>
       </c>
       <c r="H11" t="n">
-        <v>1.24017514222929</v>
+        <v>1.30126788283199</v>
       </c>
       <c r="I11" t="n">
-        <v>1.79589860812686</v>
+        <v>2.82932742402141</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0733112427918098</v>
+        <v>0.00491673835592334</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0623565730282521</v>
+        <v>0.185194692284753</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0225626875334298</v>
+        <v>0.141505399645865</v>
       </c>
       <c r="M11" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N11" t="n">
         <v>394</v>
       </c>
       <c r="O11" t="n">
-        <v>83.7257331681124</v>
+        <v>83.7391663227404</v>
       </c>
     </row>
     <row r="12">
@@ -1009,40 +1012,40 @@
         <v>27</v>
       </c>
       <c r="D12" t="n">
-        <v>0.129547123361413</v>
+        <v>0.0389785120838604</v>
       </c>
       <c r="E12" t="n">
-        <v>0.068670231371166</v>
+        <v>0.0682937403743364</v>
       </c>
       <c r="F12" t="n">
-        <v>1.13831275132211</v>
+        <v>1.03974814138925</v>
       </c>
       <c r="G12" t="n">
-        <v>0.994966182213692</v>
+        <v>0.909484594995929</v>
       </c>
       <c r="H12" t="n">
-        <v>1.3023115187087</v>
+        <v>1.18866905879503</v>
       </c>
       <c r="I12" t="n">
-        <v>1.88651065788907</v>
+        <v>0.570747946593768</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0602285741740972</v>
+        <v>0.568620243541203</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0756278539072352</v>
+        <v>0.196263650562194</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0244515413207846</v>
+        <v>0.139861099724453</v>
       </c>
       <c r="M12" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N12" t="n">
         <v>306</v>
       </c>
       <c r="O12" t="n">
-        <v>87.360594795539</v>
+        <v>87.3710276516715</v>
       </c>
     </row>
     <row r="13">
@@ -1056,40 +1059,40 @@
         <v>28</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0769762174558231</v>
+        <v>0.0283568434659498</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0635463417379066</v>
+        <v>0.0641477305654876</v>
       </c>
       <c r="F13" t="n">
-        <v>1.08001639054964</v>
+        <v>1.02876272618615</v>
       </c>
       <c r="G13" t="n">
-        <v>0.953539324668099</v>
+        <v>0.907217815375021</v>
       </c>
       <c r="H13" t="n">
-        <v>1.22326932270138</v>
+        <v>1.16659167054879</v>
       </c>
       <c r="I13" t="n">
-        <v>1.21133987182625</v>
+        <v>0.442055287318399</v>
       </c>
       <c r="J13" t="n">
-        <v>0.226852464296905</v>
+        <v>0.658816668152134</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0696299126287323</v>
+        <v>0.18570233168099</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0165669798889262</v>
+        <v>0.129327877720443</v>
       </c>
       <c r="M13" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N13" t="n">
         <v>279</v>
       </c>
       <c r="O13" t="n">
-        <v>88.4758364312268</v>
+        <v>88.4853487412299</v>
       </c>
     </row>
     <row r="14">
@@ -1103,40 +1106,40 @@
         <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>0.201269388889973</v>
+        <v>0.0469486475892442</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0574122625980754</v>
+        <v>0.061645806079642</v>
       </c>
       <c r="F14" t="n">
-        <v>1.22295417772061</v>
+        <v>1.04806818686969</v>
       </c>
       <c r="G14" t="n">
-        <v>1.09279797216216</v>
+        <v>0.928785804581543</v>
       </c>
       <c r="H14" t="n">
-        <v>1.36861245985399</v>
+        <v>1.18266980277892</v>
       </c>
       <c r="I14" t="n">
-        <v>3.50568641230871</v>
+        <v>0.761587049873106</v>
       </c>
       <c r="J14" t="n">
-        <v>0.000510262503883095</v>
+        <v>0.446787752740123</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0841895317032081</v>
+        <v>0.169000052831378</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0453222439240338</v>
+        <v>0.12444241491349</v>
       </c>
       <c r="M14" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N14" t="n">
         <v>394</v>
       </c>
       <c r="O14" t="n">
-        <v>83.7257331681124</v>
+        <v>83.7391663227404</v>
       </c>
     </row>
     <row r="15">
@@ -1150,40 +1153,40 @@
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>0.262655938200548</v>
+        <v>0.204449247304689</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0529328208071098</v>
+        <v>0.0518861010321545</v>
       </c>
       <c r="F15" t="n">
-        <v>1.30037923115617</v>
+        <v>1.2268491883626</v>
       </c>
       <c r="G15" t="n">
-        <v>1.17222963869964</v>
+        <v>1.10821707952223</v>
       </c>
       <c r="H15" t="n">
-        <v>1.44253829539589</v>
+        <v>1.35818059367472</v>
       </c>
       <c r="I15" t="n">
-        <v>4.96206199094662</v>
+        <v>3.94034709175756</v>
       </c>
       <c r="J15" t="n">
-        <v>0.00000106234294049824</v>
+        <v>0.0000973175261597288</v>
       </c>
       <c r="K15" t="n">
-        <v>0.114367207908324</v>
+        <v>0.199308919681197</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0763775975236944</v>
+        <v>0.155911029149013</v>
       </c>
       <c r="M15" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N15" t="n">
         <v>390</v>
       </c>
       <c r="O15" t="n">
-        <v>83.8909541511772</v>
+        <v>83.9042509286009</v>
       </c>
     </row>
     <row r="16">
@@ -1197,40 +1200,40 @@
         <v>31</v>
       </c>
       <c r="D16" t="n">
-        <v>0.127705656765095</v>
+        <v>0.181771701827761</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0609258431689728</v>
+        <v>0.0580024905928667</v>
       </c>
       <c r="F16" t="n">
-        <v>1.13621851523908</v>
+        <v>1.19934035541161</v>
       </c>
       <c r="G16" t="n">
-        <v>1.00832546971437</v>
+        <v>1.07045824191349</v>
       </c>
       <c r="H16" t="n">
-        <v>1.28033313959411</v>
+        <v>1.34373974789303</v>
       </c>
       <c r="I16" t="n">
-        <v>2.09608353569952</v>
+        <v>3.13386028720145</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0368136314184868</v>
+        <v>0.0018771719643093</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0759395779339727</v>
+        <v>0.199626688868163</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0324543816014536</v>
+        <v>0.15198542034841</v>
       </c>
       <c r="M16" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N16" t="n">
         <v>357</v>
       </c>
       <c r="O16" t="n">
-        <v>85.2540272614622</v>
+        <v>85.2661989269501</v>
       </c>
     </row>
     <row r="17">
@@ -1244,40 +1247,40 @@
         <v>32</v>
       </c>
       <c r="D17" t="n">
-        <v>0.151616900639059</v>
+        <v>0.00813000954907843</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0556843519773861</v>
+        <v>0.0594078232171239</v>
       </c>
       <c r="F17" t="n">
-        <v>1.16371433280765</v>
+        <v>1.00816314782066</v>
       </c>
       <c r="G17" t="n">
-        <v>1.04339056682729</v>
+        <v>0.897349981649522</v>
       </c>
       <c r="H17" t="n">
-        <v>1.29791383153852</v>
+        <v>1.13266055988023</v>
       </c>
       <c r="I17" t="n">
-        <v>2.72279186620745</v>
+        <v>0.136850823827778</v>
       </c>
       <c r="J17" t="n">
-        <v>0.00677977903013872</v>
+        <v>0.891223956559539</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0753649424301389</v>
+        <v>0.166181025185557</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0353807237244151</v>
+        <v>0.120617146780396</v>
       </c>
       <c r="M17" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N17" t="n">
         <v>387</v>
       </c>
       <c r="O17" t="n">
-        <v>84.0148698884758</v>
+        <v>84.0280643829963</v>
       </c>
     </row>
     <row r="18">
@@ -1291,40 +1294,40 @@
         <v>33</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0101961322127304</v>
+        <v>0.134381475566897</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0583757609704539</v>
+        <v>0.0582913840892491</v>
       </c>
       <c r="F18" t="n">
-        <v>0.989855672125858</v>
+        <v>1.14382907927461</v>
       </c>
       <c r="G18" t="n">
-        <v>0.882838827178865</v>
+        <v>1.02033434495026</v>
       </c>
       <c r="H18" t="n">
-        <v>1.10984499262539</v>
+        <v>1.28227082531264</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.174663799550143</v>
+        <v>2.30534027740956</v>
       </c>
       <c r="J18" t="n">
-        <v>0.861440391806081</v>
+        <v>0.0217123982779055</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0561552857970345</v>
+        <v>0.178729775295711</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0148943146843364</v>
+        <v>0.133355729731938</v>
       </c>
       <c r="M18" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N18" t="n">
         <v>383</v>
       </c>
       <c r="O18" t="n">
-        <v>84.1800908715407</v>
+        <v>84.1931489888568</v>
       </c>
     </row>
     <row r="19">
@@ -1338,40 +1341,40 @@
         <v>34</v>
       </c>
       <c r="D19" t="n">
-        <v>0.16289087698022</v>
+        <v>0.170109977649133</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0593696383375441</v>
+        <v>0.0564275350914811</v>
       </c>
       <c r="F19" t="n">
-        <v>1.17690825489822</v>
+        <v>1.18543521552986</v>
       </c>
       <c r="G19" t="n">
-        <v>1.04762572118708</v>
+        <v>1.0613185061388</v>
       </c>
       <c r="H19" t="n">
-        <v>1.32214493443143</v>
+        <v>1.32406684900919</v>
       </c>
       <c r="I19" t="n">
-        <v>2.7436730548047</v>
+        <v>3.01466256453252</v>
       </c>
       <c r="J19" t="n">
-        <v>0.00640466974528462</v>
+        <v>0.00277265016813951</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0835447762650906</v>
+        <v>0.200170618945086</v>
       </c>
       <c r="L19" t="n">
-        <v>0.039510891641191</v>
+        <v>0.151548772072447</v>
       </c>
       <c r="M19" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N19" t="n">
         <v>350</v>
       </c>
       <c r="O19" t="n">
-        <v>85.5431639818257</v>
+        <v>85.5550969872059</v>
       </c>
     </row>
     <row r="20">
@@ -1385,40 +1388,40 @@
         <v>35</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0271954115999601</v>
+        <v>0.118352781294595</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0585829391940252</v>
+        <v>0.0567350688189191</v>
       </c>
       <c r="F20" t="n">
-        <v>1.02756858196623</v>
+        <v>1.12564114647085</v>
       </c>
       <c r="G20" t="n">
-        <v>0.916102382541603</v>
+        <v>1.00717768337592</v>
       </c>
       <c r="H20" t="n">
-        <v>1.15259736331505</v>
+        <v>1.25803819081969</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4642206754067</v>
+        <v>2.08606041657128</v>
       </c>
       <c r="J20" t="n">
-        <v>0.642757597298049</v>
+        <v>0.0376521113605155</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0548752441526763</v>
+        <v>0.177305905021289</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0147638486790498</v>
+        <v>0.133193621108222</v>
       </c>
       <c r="M20" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N20" t="n">
         <v>394</v>
       </c>
       <c r="O20" t="n">
-        <v>83.7257331681124</v>
+        <v>83.7391663227404</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1435,40 @@
         <v>36</v>
       </c>
       <c r="D21" t="n">
-        <v>0.170765569420424</v>
+        <v>0.095181916531186</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0604205311928922</v>
+        <v>0.060142484739882</v>
       </c>
       <c r="F21" t="n">
-        <v>1.18621263190861</v>
+        <v>1.09985891944747</v>
       </c>
       <c r="G21" t="n">
-        <v>1.05373535081498</v>
+        <v>0.977558293546561</v>
       </c>
       <c r="H21" t="n">
-        <v>1.33534516708704</v>
+        <v>1.23746036494604</v>
       </c>
       <c r="I21" t="n">
-        <v>2.82628381526895</v>
+        <v>1.5826069864398</v>
       </c>
       <c r="J21" t="n">
-        <v>0.00500625288795519</v>
+        <v>0.1145145460433</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0916335139069546</v>
+        <v>0.17398457325661</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0460728124101246</v>
+        <v>0.121539149336395</v>
       </c>
       <c r="M21" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N21" t="n">
         <v>336</v>
       </c>
       <c r="O21" t="n">
-        <v>86.1214374225527</v>
+        <v>86.1328931077177</v>
       </c>
     </row>
     <row r="22">
@@ -1479,40 +1482,40 @@
         <v>37</v>
       </c>
       <c r="D22" t="n">
-        <v>0.186416319376099</v>
+        <v>0.0552475031538552</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0558334620102594</v>
+        <v>0.058467131337449</v>
       </c>
       <c r="F22" t="n">
-        <v>1.20492378909245</v>
+        <v>1.05680214417316</v>
       </c>
       <c r="G22" t="n">
-        <v>1.08002342836996</v>
+        <v>0.942378694289438</v>
       </c>
       <c r="H22" t="n">
-        <v>1.34426837361492</v>
+        <v>1.18511886855748</v>
       </c>
       <c r="I22" t="n">
-        <v>3.33879205523464</v>
+        <v>0.944932680808104</v>
       </c>
       <c r="J22" t="n">
-        <v>0.000925300891136662</v>
+        <v>0.345304932472628</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0814943330040699</v>
+        <v>0.169695454390055</v>
       </c>
       <c r="L22" t="n">
-        <v>0.042512660134216</v>
+        <v>0.125175103419012</v>
       </c>
       <c r="M22" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N22" t="n">
         <v>394</v>
       </c>
       <c r="O22" t="n">
-        <v>83.7257331681124</v>
+        <v>83.7391663227404</v>
       </c>
     </row>
     <row r="23">
@@ -1526,40 +1529,40 @@
         <v>38</v>
       </c>
       <c r="D23" t="n">
-        <v>0.159091074496785</v>
+        <v>0.049143211789154</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0604184292771164</v>
+        <v>0.0610121389444876</v>
       </c>
       <c r="F23" t="n">
-        <v>1.17244472163144</v>
+        <v>1.05037076544579</v>
       </c>
       <c r="G23" t="n">
-        <v>1.04150934374954</v>
+        <v>0.931983115812137</v>
       </c>
       <c r="H23" t="n">
-        <v>1.31984089584124</v>
+        <v>1.18379692312533</v>
       </c>
       <c r="I23" t="n">
-        <v>2.63315475758389</v>
+        <v>0.805466135745008</v>
       </c>
       <c r="J23" t="n">
-        <v>0.00884933529330351</v>
+        <v>0.421125503245497</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0870000474662332</v>
+        <v>0.188601662841897</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0436528687109207</v>
+        <v>0.139869029979549</v>
       </c>
       <c r="M23" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N23" t="n">
         <v>354</v>
       </c>
       <c r="O23" t="n">
-        <v>85.3779429987608</v>
+        <v>85.3900123813454</v>
       </c>
     </row>
     <row r="24">
@@ -1573,40 +1576,40 @@
         <v>39</v>
       </c>
       <c r="D24" t="n">
-        <v>0.181413175288642</v>
+        <v>0.170223081458006</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0541631475629149</v>
+        <v>0.0517878136575297</v>
       </c>
       <c r="F24" t="n">
-        <v>1.19891043713792</v>
+        <v>1.18556930035052</v>
       </c>
       <c r="G24" t="n">
-        <v>1.07815732787708</v>
+        <v>1.07113514219013</v>
       </c>
       <c r="H24" t="n">
-        <v>1.33318783735255</v>
+        <v>1.31222897146262</v>
       </c>
       <c r="I24" t="n">
-        <v>3.34938391602733</v>
+        <v>3.28693314963405</v>
       </c>
       <c r="J24" t="n">
-        <v>0.000891852156198919</v>
+        <v>0.00110922682063337</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0817385952643203</v>
+        <v>0.191368559105193</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0426636418713126</v>
+        <v>0.147893750454934</v>
       </c>
       <c r="M24" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N24" t="n">
         <v>393</v>
       </c>
       <c r="O24" t="n">
-        <v>83.7670384138786</v>
+        <v>83.7804374742055</v>
       </c>
     </row>
     <row r="25">
@@ -1620,40 +1623,40 @@
         <v>40</v>
       </c>
       <c r="D25" t="n">
-        <v>0.143572717785275</v>
+        <v>0.0618054734723827</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0549268610553998</v>
+        <v>0.0545092927430032</v>
       </c>
       <c r="F25" t="n">
-        <v>1.15439075249391</v>
+        <v>1.06375539595676</v>
       </c>
       <c r="G25" t="n">
-        <v>1.03656884373781</v>
+        <v>0.955966182697388</v>
       </c>
       <c r="H25" t="n">
-        <v>1.28560492387375</v>
+        <v>1.18369829697766</v>
       </c>
       <c r="I25" t="n">
-        <v>2.61388899759748</v>
+        <v>1.13385205278262</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0093104708570132</v>
+        <v>0.25758481486357</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0711683183755479</v>
+        <v>0.170566659241105</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0317484061580645</v>
+        <v>0.126093021666902</v>
       </c>
       <c r="M25" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N25" t="n">
         <v>394</v>
       </c>
       <c r="O25" t="n">
-        <v>83.7257331681124</v>
+        <v>83.7391663227404</v>
       </c>
     </row>
     <row r="26">
@@ -1667,40 +1670,40 @@
         <v>41</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.00345726941525838</v>
+        <v>0.128407338471436</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0573528886150312</v>
+        <v>0.060387141326669</v>
       </c>
       <c r="F26" t="n">
-        <v>0.996548700059304</v>
+        <v>1.13701605876376</v>
       </c>
       <c r="G26" t="n">
-        <v>0.890591944553923</v>
+        <v>1.01009919759523</v>
       </c>
       <c r="H26" t="n">
-        <v>1.11511149147808</v>
+        <v>1.27987975929937</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.0602806501772657</v>
+        <v>2.12640200629479</v>
       </c>
       <c r="J26" t="n">
-        <v>0.951970583111547</v>
+        <v>0.0342621563704601</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0855984151100559</v>
+        <v>0.219971524777329</v>
       </c>
       <c r="L26" t="n">
-        <v>0.038855842080538</v>
+        <v>0.169484244827641</v>
       </c>
       <c r="M26" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N26" t="n">
         <v>330</v>
       </c>
       <c r="O26" t="n">
-        <v>86.3692688971499</v>
+        <v>86.3805200165085</v>
       </c>
     </row>
     <row r="27">
@@ -1714,40 +1717,40 @@
         <v>42</v>
       </c>
       <c r="D27" t="n">
-        <v>0.131606213634034</v>
+        <v>0.0500090557618529</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0557511765907601</v>
+        <v>0.0549926309837425</v>
       </c>
       <c r="F27" t="n">
-        <v>1.14065905483193</v>
+        <v>1.05128061647982</v>
       </c>
       <c r="G27" t="n">
-        <v>1.02258517634689</v>
+        <v>0.94386087585849</v>
       </c>
       <c r="H27" t="n">
-        <v>1.27236645852638</v>
+        <v>1.17092567649969</v>
       </c>
       <c r="I27" t="n">
-        <v>2.36059975200318</v>
+        <v>0.909377399612634</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0187677326491901</v>
+        <v>0.363754333613875</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0709903495051871</v>
+        <v>0.171053016425037</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0304885663773479</v>
+        <v>0.125381006310714</v>
       </c>
       <c r="M27" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N27" t="n">
         <v>384</v>
       </c>
       <c r="O27" t="n">
-        <v>84.1387856257745</v>
+        <v>84.1518778373917</v>
       </c>
     </row>
     <row r="28">
@@ -1761,40 +1764,40 @@
         <v>43</v>
       </c>
       <c r="D28" t="n">
-        <v>0.197640103518645</v>
+        <v>0.141512762165894</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0598528819217472</v>
+        <v>0.0573115292019235</v>
       </c>
       <c r="F28" t="n">
-        <v>1.21852377247908</v>
+        <v>1.15201520637617</v>
       </c>
       <c r="G28" t="n">
-        <v>1.08364293711714</v>
+        <v>1.02961213661573</v>
       </c>
       <c r="H28" t="n">
-        <v>1.37019320039746</v>
+        <v>1.28896988343994</v>
       </c>
       <c r="I28" t="n">
-        <v>3.30209836473779</v>
+        <v>2.4691848941477</v>
       </c>
       <c r="J28" t="n">
-        <v>0.00105258470280664</v>
+        <v>0.013995422432016</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0879650386186064</v>
+        <v>0.196117152700486</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0487377284516648</v>
+        <v>0.152427867521164</v>
       </c>
       <c r="M28" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N28" t="n">
         <v>389</v>
       </c>
       <c r="O28" t="n">
-        <v>83.9322593969434</v>
+        <v>83.945522080066</v>
       </c>
     </row>
     <row r="29">
@@ -1808,40 +1811,40 @@
         <v>44</v>
       </c>
       <c r="D29" t="n">
-        <v>0.147885156269401</v>
+        <v>0.167234495267182</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0589096625964751</v>
+        <v>0.0557830254223257</v>
       </c>
       <c r="F29" t="n">
-        <v>1.15937974122244</v>
+        <v>1.18203141358426</v>
       </c>
       <c r="G29" t="n">
-        <v>1.03295354439304</v>
+        <v>1.05960878096664</v>
       </c>
       <c r="H29" t="n">
-        <v>1.30127960899426</v>
+        <v>1.31859822964603</v>
       </c>
       <c r="I29" t="n">
-        <v>2.5103718091614</v>
+        <v>2.99794595221525</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0124840085025006</v>
+        <v>0.00290268683685405</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0768705104540829</v>
+        <v>0.202281463616421</v>
       </c>
       <c r="L29" t="n">
-        <v>0.037166016280065</v>
+        <v>0.158927195334704</v>
       </c>
       <c r="M29" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N29" t="n">
         <v>389</v>
       </c>
       <c r="O29" t="n">
-        <v>83.9322593969434</v>
+        <v>83.945522080066</v>
       </c>
     </row>
     <row r="30">
@@ -1855,40 +1858,2766 @@
         <v>45</v>
       </c>
       <c r="D30" t="n">
-        <v>0.124656669472376</v>
+        <v>0.0849277482202467</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0557551769366438</v>
+        <v>0.0533419816358604</v>
       </c>
       <c r="F30" t="n">
-        <v>1.13275947538834</v>
+        <v>1.08863840779434</v>
       </c>
       <c r="G30" t="n">
-        <v>1.01549534966879</v>
+        <v>0.980568733066264</v>
       </c>
       <c r="H30" t="n">
-        <v>1.26356465295539</v>
+        <v>1.20861857303878</v>
       </c>
       <c r="I30" t="n">
-        <v>2.23578645645816</v>
+        <v>1.59213710506683</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0259583405912581</v>
+        <v>0.112212476460627</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0736793965386696</v>
+        <v>0.188389380285807</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0338376501532361</v>
+        <v>0.144280107475253</v>
       </c>
       <c r="M30" t="n">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="N30" t="n">
         <v>389</v>
       </c>
       <c r="O30" t="n">
-        <v>83.9322593969434</v>
+        <v>83.945522080066</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.0848934032579755</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0531062648072765</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.918610200037135</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.827801669994865</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.01938028177389</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-1.59855722420048</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.111000495503923</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.193817782718575</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.138599822630806</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N31" t="n">
+        <v>313</v>
+      </c>
+      <c r="O31" t="n">
+        <v>87.0821295914156</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.105968918732815</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0546512820381015</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.899452603768171</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.808087098152331</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.00114825279989</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-1.93900151617553</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0535468646667974</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.194753012505183</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.140870314457203</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N32" t="n">
+        <v>288</v>
+      </c>
+      <c r="O32" t="n">
+        <v>88.1139083780437</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.0939063098407789</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.052648900302759</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.910368050772983</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.821110033766352</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.0093287790757</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-1.78363288313275</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0755362392131128</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.178236196714488</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.126875959009144</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N33" t="n">
+        <v>307</v>
+      </c>
+      <c r="O33" t="n">
+        <v>87.3297565002064</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0636221116904004</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0533058716963079</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.06568961101624</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.959966014380045</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.18305682702881</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.19352914915013</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.2336211404761</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.191724406879802</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.136926061583518</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N34" t="n">
+        <v>316</v>
+      </c>
+      <c r="O34" t="n">
+        <v>86.9583161370202</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.281352814904722</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0509448943121426</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.32492097334994</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.19901552236352</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.46404742297434</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.52268914684276</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.000000075015225501561</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.259706650611537</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.207937884920036</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N35" t="n">
+        <v>307</v>
+      </c>
+      <c r="O35" t="n">
+        <v>87.3297565002064</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.116089608310486</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0505135980642332</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.12309650640481</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.01722970423893</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.23998125245703</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.298185295826</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.0221857951801141</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.187807944342284</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.137826894763347</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N36" t="n">
+        <v>346</v>
+      </c>
+      <c r="O36" t="n">
+        <v>85.7201815930664</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.0599643195715263</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0581633905709278</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.941798136745812</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.840326674030474</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.05552252212063</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-1.0309632740272</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.303531065028839</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.191874522788653</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.13505320017223</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N37" t="n">
+        <v>275</v>
+      </c>
+      <c r="O37" t="n">
+        <v>88.6504333470904</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.0518318304080616</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0567495528922685</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.949488528515785</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.849539403946205</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.06119676332301</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-0.913343414466322</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.36188287815731</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.16876736754882</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.112938310145383</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N38" t="n">
+        <v>287</v>
+      </c>
+      <c r="O38" t="n">
+        <v>88.1551795295089</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.153172886625985</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0479158013494047</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.16552646546318</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.06104886691192</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.28029159076221</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.19670927569468</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.00150899477511473</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.17469392018217</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.130322625568308</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N39" t="n">
+        <v>393</v>
+      </c>
+      <c r="O39" t="n">
+        <v>83.7804374742055</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.150102558355666</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0485156933943204</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.16195340464819</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.05655308119167</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.27786832352117</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.09389700226851</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.00212442247350751</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.173286403866616</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.128958597103432</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N40" t="n">
+        <v>394</v>
+      </c>
+      <c r="O40" t="n">
+        <v>83.7391663227404</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.0616765382935007</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0606967245048045</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.940186952087649</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.834734041264698</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.0589618503357</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-1.01614277865387</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.310423248021231</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.183783491094388</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.12650513959224</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N41" t="n">
+        <v>306</v>
+      </c>
+      <c r="O41" t="n">
+        <v>87.3710276516715</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.0744410557347628</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0575176945079837</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.928262188179055</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.829297985263351</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.03903627563901</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-1.2942287824911</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.196734766911264</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.165621921956463</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.107857285784219</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N42" t="n">
+        <v>279</v>
+      </c>
+      <c r="O42" t="n">
+        <v>88.4853487412299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0524906363040025</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0544796037991407</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.05389269370154</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.947157971499447</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.17265529432133</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.963491520561139</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.335925129567013</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.15417574792234</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.108823241108524</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N43" t="n">
+        <v>394</v>
+      </c>
+      <c r="O43" t="n">
+        <v>83.7391663227404</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.225405326601478</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0451533878365688</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.2528304187881</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.14671884545804</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.36876102146367</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4.99199146290695</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.000000923145831160673</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.203568569750563</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.160401554560892</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N44" t="n">
+        <v>390</v>
+      </c>
+      <c r="O44" t="n">
+        <v>83.9042509286009</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.164458634758579</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0506263155571072</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.17875480906587</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.06740562665269</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.30171966982521</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3.2484812088106</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.00127740180502528</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.191936494909568</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.143837476749423</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N45" t="n">
+        <v>357</v>
+      </c>
+      <c r="O45" t="n">
+        <v>85.2661989269501</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.0592968592770807</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0521000574193361</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.06109018845653</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.958084545071508</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.17517018078471</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1.13813424042549</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.255808894961391</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.151934993517108</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.105592643436075</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N46" t="n">
+        <v>387</v>
+      </c>
+      <c r="O46" t="n">
+        <v>84.0280643829963</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.102225872333035</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0514028006882786</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.1076336272668</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.00147747337391</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.22504228489436</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.98872183935973</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.0474844064690607</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.163335999113507</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.117111468677789</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N47" t="n">
+        <v>383</v>
+      </c>
+      <c r="O47" t="n">
+        <v>84.1931489888568</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.142418448680599</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0499077943728865</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.15305904363663</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.04560866636799</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.27155139477804</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.85363139105123</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.00459612115176549</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.18176235995816</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.132021469986012</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N48" t="n">
+        <v>350</v>
+      </c>
+      <c r="O48" t="n">
+        <v>85.5550969872059</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.131722097327993</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0499917681403536</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.14079124627602</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.03431382079295</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.25822998921379</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.63487574510624</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.00876767215123976</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.167564619106918</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.122930014233294</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N49" t="n">
+        <v>394</v>
+      </c>
+      <c r="O49" t="n">
+        <v>83.7391663227404</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.0942965531694306</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.053013129527925</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.09888557560216</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.990436839946728</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.21920899906292</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.77873960675646</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.0762468010893397</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.149660637591978</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.0956708368041667</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N50" t="n">
+        <v>336</v>
+      </c>
+      <c r="O50" t="n">
+        <v>86.1328931077177</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.0664603730363922</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0516418360975175</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.06871861316247</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.965839482544852</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.18255620603797</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.28694829732413</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.198910384984222</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.155819100785113</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.110554709406299</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N51" t="n">
+        <v>394</v>
+      </c>
+      <c r="O51" t="n">
+        <v>83.7391663227404</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.0630632537933749</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0531828034965918</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.06509420834959</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.95966113514295</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.18211067544259</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.18578280284559</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.236553506763543</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.178255627741072</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.128901611389185</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N52" t="n">
+        <v>354</v>
+      </c>
+      <c r="O52" t="n">
+        <v>85.3900123813454</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.151589654955908</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0457830785593798</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.16368262704759</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.063807890929</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.27293402130136</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3.31104110352255</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.00102045517961873</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.176297373307108</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.132012285850501</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N53" t="n">
+        <v>393</v>
+      </c>
+      <c r="O53" t="n">
+        <v>83.7804374742055</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.128975715229885</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0478140248970832</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.13766249595808</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.03588923948892</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1.24943469375946</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2.69744526856916</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.00730453597860359</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.168294968220905</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.123699524157683</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N54" t="n">
+        <v>394</v>
+      </c>
+      <c r="O54" t="n">
+        <v>83.7391663227404</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.225596187782926</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0517760500740213</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.25306955830249</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.13214620707907</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1.38690860608495</v>
+      </c>
+      <c r="I55" t="n">
+        <v>4.3571533066042</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.0000179549587698576</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.244292014005808</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.195378875753756</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N55" t="n">
+        <v>330</v>
+      </c>
+      <c r="O55" t="n">
+        <v>86.3805200165085</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.0304781759416872</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0486423474552754</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.0309473903473</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.937197888751173</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1.13407481431715</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.626576995892532</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.531330384298972</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.152247364562506</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.105539230378622</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N56" t="n">
+        <v>384</v>
+      </c>
+      <c r="O56" t="n">
+        <v>84.1518778373917</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.0560660158932655</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.0510532159488991</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.05766750429703</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.956955596385782</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.16897853345635</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.09818774099136</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.272840516295014</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.16332636534203</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.117854972154097</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N57" t="n">
+        <v>389</v>
+      </c>
+      <c r="O57" t="n">
+        <v>83.945522080066</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.219245804537939</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.0486402260931486</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.24513729947366</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.13191508237271</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1.36968481000422</v>
+      </c>
+      <c r="I58" t="n">
+        <v>4.50749970031125</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.00000882721448588026</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.20450431152352</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.161270850193276</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N58" t="n">
+        <v>389</v>
+      </c>
+      <c r="O58" t="n">
+        <v>83.945522080066</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.116487431282359</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0469769696820622</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.12354338887885</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.02471299725629</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1.23190566536518</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2.47967104031486</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.0135972425716567</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.174379376224817</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.129508690150079</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N59" t="n">
+        <v>389</v>
+      </c>
+      <c r="O59" t="n">
+        <v>83.945522080066</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-0.10114783901611</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0538041786822905</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.903799406193516</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.813341645747885</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1.00431764548911</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-1.87992534210735</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.0609463000197016</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.0888332792050493</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.0369149475358215</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N60" t="n">
+        <v>372</v>
+      </c>
+      <c r="O60" t="n">
+        <v>84.6471316549732</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-0.0556183702313189</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0578040516844022</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.94590005063563</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.844581271160044</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1.05937336801652</v>
+      </c>
+      <c r="I61" t="n">
+        <v>-0.962188092540351</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.336674887066641</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.0863189498902259</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.0325730057661215</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N61" t="n">
+        <v>343</v>
+      </c>
+      <c r="O61" t="n">
+        <v>85.8439950474618</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-0.144816871558934</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.055107031851811</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.865180717800356</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.776602491100776</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.963862056883881</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-2.6279200075294</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.00897576486268526</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.101274013427101</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.0516350781222027</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N62" t="n">
+        <v>364</v>
+      </c>
+      <c r="O62" t="n">
+        <v>84.9773008666942</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.0305625547546841</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.0540384854623128</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.03103438413452</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.927416164976364</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1.14622964469759</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.565570157883105</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.572037363378241</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.0787968997074819</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.0277607168657913</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N63" t="n">
+        <v>382</v>
+      </c>
+      <c r="O63" t="n">
+        <v>84.2344201403219</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.320233154859344</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.0520855301012884</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.37744888580021</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.24376804242874</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1.52549781652791</v>
+      </c>
+      <c r="I64" t="n">
+        <v>6.14821725413183</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.00000000215446951269832</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.199579035836011</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.153445262685349</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N64" t="n">
+        <v>368</v>
+      </c>
+      <c r="O64" t="n">
+        <v>84.8122162608337</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.268351686900506</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0424062438539855</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.30780699773672</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1.20350176999562</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1.42115216277195</v>
+      </c>
+      <c r="I65" t="n">
+        <v>6.32811733631734</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.000000000627956062134278</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.218953475428098</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.182370500038313</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N65" t="n">
+        <v>448</v>
+      </c>
+      <c r="O65" t="n">
+        <v>81.5105241436236</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0.168926112282013</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0606792970799541</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.844571304527036</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.749868414964225</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.951234475537324</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-2.7839167625727</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.00570609747569648</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.112963269878192</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.0577052440673254</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N66" t="n">
+        <v>325</v>
+      </c>
+      <c r="O66" t="n">
+        <v>86.5868757738341</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-0.120051865984942</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0574867358942234</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.886874436908065</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.792370757667449</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.992649285993847</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-2.08834027741356</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.0375499719338105</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.0976290706199295</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.0445484277152195</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N67" t="n">
+        <v>343</v>
+      </c>
+      <c r="O67" t="n">
+        <v>85.8439950474618</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.405369957259858</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.0418558209955097</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.49985728051759</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1.38172476446995</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1.62808970336765</v>
+      </c>
+      <c r="I68" t="n">
+        <v>9.68491233999082</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.0000000000000000000228633391623955</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.251826852357304</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.220391005817695</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N68" t="n">
+        <v>497</v>
+      </c>
+      <c r="O68" t="n">
+        <v>79.4882377218324</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.360491689140819</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.0428611741077328</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.43403434035667</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1.31848557711083</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1.55970950689386</v>
+      </c>
+      <c r="I69" t="n">
+        <v>8.41068161676375</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.000000000000000476105911183676</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.219305836520462</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.186572328617756</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N69" t="n">
+        <v>498</v>
+      </c>
+      <c r="O69" t="n">
+        <v>79.4469665703673</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.0975799038838368</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.0578263264450944</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.907029863451354</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.809839253307958</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1.01588453490255</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-1.68746503336137</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.0924151666012499</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.100137548695529</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.0481223780998953</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N70" t="n">
+        <v>367</v>
+      </c>
+      <c r="O70" t="n">
+        <v>84.8534874122988</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0.0240052991800978</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0583433068268668</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.976280536257814</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.870786736999313</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1.09455466531365</v>
+      </c>
+      <c r="I71" t="n">
+        <v>-0.411449067351174</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.681022196282904</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.0916311853144873</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.0370140730390923</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N71" t="n">
+        <v>336</v>
+      </c>
+      <c r="O71" t="n">
+        <v>86.1328931077177</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.368109617421444</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.0503746102210816</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.4450004275135</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.3091464780435</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1.59495233767479</v>
+      </c>
+      <c r="I72" t="n">
+        <v>7.30744348801713</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.00000000000115392663855032</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.193781852687173</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.159978156783071</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N72" t="n">
+        <v>498</v>
+      </c>
+      <c r="O72" t="n">
+        <v>79.4469665703673</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.00000000000000000260504609319124</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2.71828182845905</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2.71828182845905</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2.71828182845905</v>
+      </c>
+      <c r="I73" t="n">
+        <v>383870367059408320</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N73" t="n">
+        <v>498</v>
+      </c>
+      <c r="O73" t="n">
+        <v>79.4469665703673</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.341429604876528</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.0419262666520363</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.40695754686967</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.29596309602919</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1.52745826232149</v>
+      </c>
+      <c r="I74" t="n">
+        <v>8.1435728038987</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.00000000000000403453792017412</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.253098325845696</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.218993226569244</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N74" t="n">
+        <v>459</v>
+      </c>
+      <c r="O74" t="n">
+        <v>81.0565414775072</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.333326264975345</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0481504162153112</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.39560256043272</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1.2699168795982</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1.5337275517612</v>
+      </c>
+      <c r="I75" t="n">
+        <v>6.92260402246225</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.0000000000145772851491215</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.192243877317772</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.157944254273941</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N75" t="n">
+        <v>492</v>
+      </c>
+      <c r="O75" t="n">
+        <v>79.6945934791581</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.306740986127871</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.0461474247325809</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.35898892549822</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.24146487558896</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1.48763846319104</v>
+      </c>
+      <c r="I76" t="n">
+        <v>6.64697949897314</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.0000000000836478073375869</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.189367197349195</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.154650589098626</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N76" t="n">
+        <v>488</v>
+      </c>
+      <c r="O76" t="n">
+        <v>79.8596780850186</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.436242523247603</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.0428999073547521</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.54688390456931</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.42213420538028</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1.68257665497594</v>
+      </c>
+      <c r="I77" t="n">
+        <v>10.168845345986</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.00000000000000000000069138882751523</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.290961118828275</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.257594583243723</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N77" t="n">
+        <v>446</v>
+      </c>
+      <c r="O77" t="n">
+        <v>81.5930664465539</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.337065044925875</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.0439597414075763</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.40083017767032</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.28518663849724</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1.52687954254364</v>
+      </c>
+      <c r="I78" t="n">
+        <v>7.66758479766179</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.0000000000000991482459215156</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.20189701203314</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.168433574382538</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N78" t="n">
+        <v>498</v>
+      </c>
+      <c r="O78" t="n">
+        <v>79.4469665703673</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79" t="s">
+        <v>36</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.26648543456433</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0478638782950585</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.30536857593485</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.18847649798705</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1.43375752227685</v>
+      </c>
+      <c r="I79" t="n">
+        <v>5.5675687816514</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.0000000470438947742481</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.158581240726273</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.11713204076205</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N79" t="n">
+        <v>427</v>
+      </c>
+      <c r="O79" t="n">
+        <v>82.3772183243913</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" t="s">
+        <v>37</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.454453740067329</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.0449222433802587</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.57531261779008</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.44254100168615</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1.72030454653833</v>
+      </c>
+      <c r="I80" t="n">
+        <v>10.1164524714507</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.000000000000000000000632831345397383</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.261892576387464</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.230944676026351</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N80" t="n">
+        <v>498</v>
+      </c>
+      <c r="O80" t="n">
+        <v>79.4469665703673</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" t="s">
+        <v>38</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.364420610274656</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.0437786845706084</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.43967963087183</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1.3212977380397</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1.56866796928171</v>
+      </c>
+      <c r="I81" t="n">
+        <v>8.32415623833787</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.00000000000000112261552850913</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.253914045225743</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.219452800201528</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N81" t="n">
+        <v>454</v>
+      </c>
+      <c r="O81" t="n">
+        <v>81.2628972348328</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82" t="s">
+        <v>39</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.576975298668253</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.0371733204832315</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.78064435976932</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1.65552071459976</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1.91522480390397</v>
+      </c>
+      <c r="I82" t="n">
+        <v>15.5212203582545</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.0000000000000000000000000000000000000000000293802806392095</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.405353208528458</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.380368049222931</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N82" t="n">
+        <v>497</v>
+      </c>
+      <c r="O82" t="n">
+        <v>79.4882377218324</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83" t="s">
+        <v>40</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.675006811553431</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.0365941874116501</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.96404635413097</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.82810919188485</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2.11009172663146</v>
+      </c>
+      <c r="I83" t="n">
+        <v>18.4457384983096</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000959519649964154</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.476757959872597</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.454819090265578</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N83" t="n">
+        <v>498</v>
+      </c>
+      <c r="O83" t="n">
+        <v>79.4469665703673</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.34710254455934</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.0527229956505783</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.414961814567</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1.27604502848869</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1.56900179224396</v>
+      </c>
+      <c r="I84" t="n">
+        <v>6.58351332803171</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.000000000151629417422995</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.204736876516506</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.163208776073503</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N84" t="n">
+        <v>404</v>
+      </c>
+      <c r="O84" t="n">
+        <v>83.3264548080892</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.105288388303854</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.046451537119756</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.11103097249683</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.01434529574361</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1.21693256431215</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2.2666287238765</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.0238836695127448</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.120549430215818</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.0817215904902469</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N85" t="n">
+        <v>474</v>
+      </c>
+      <c r="O85" t="n">
+        <v>80.4374742055303</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.352529188509202</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.0472242497246814</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.42266118050156</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.29689073717029</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1.56062864549578</v>
+      </c>
+      <c r="I86" t="n">
+        <v>7.46500347945085</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.000000000000426237198740032</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.197721505557731</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.162533852292719</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N86" t="n">
+        <v>477</v>
+      </c>
+      <c r="O86" t="n">
+        <v>80.313660751135</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" t="s">
+        <v>44</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.471890937884826</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0413304955533038</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.60302254516317</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.4782857901689</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1.7382845031662</v>
+      </c>
+      <c r="I87" t="n">
+        <v>11.417500118677</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.00000000000000000000000000995649329754991</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.299837180440203</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.269128284845475</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N87" t="n">
+        <v>477</v>
+      </c>
+      <c r="O87" t="n">
+        <v>80.313660751135</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88" t="s">
+        <v>45</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.603435468213661</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0374284096939303</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.82838939666049</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.69906106744532</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1.96756187865983</v>
+      </c>
+      <c r="I88" t="n">
+        <v>16.122391337175</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.000000000000000000000000000000000000000000000139054342958194</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.428125371975339</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.40298802568854</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2423</v>
+      </c>
+      <c r="N88" t="n">
+        <v>476</v>
+      </c>
+      <c r="O88" t="n">
+        <v>80.3549319026001</v>
       </c>
     </row>
   </sheetData>
